--- a/src/effect.xlsx
+++ b/src/effect.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2E116-7379-4775-830D-1B34B6A80269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -85,23 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xplode</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bundleName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,11 +124,23 @@
     <t>bundle名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SwordHitEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballExplode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OuterSpaceExplode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -514,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -551,10 +547,44 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/effect.xlsx
+++ b/src/effect.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2E116-7379-4775-830D-1B34B6A80269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -136,11 +135,19 @@
     <t>OuterSpaceExplode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>挑战按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSpell1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,21 +478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -519,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -536,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -553,7 +560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -570,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -584,6 +591,23 @@
         <v>17</v>
       </c>
       <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/src/effect.xlsx
+++ b/src/effect.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -132,15 +132,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OuterSpaceExplode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BlueSpell1</t>
+    <t>脚底特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseLevelUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircleBtnEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootCircle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircleBtnEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,13 +597,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -582,13 +614,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -599,15 +631,49 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
     </row>

--- a/src/effect.xlsx
+++ b/src/effect.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2064C4C-C995-4EC7-A627-64208CA8F87F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -160,26 +161,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>挂机按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootCircle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CircleBtnEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挂机按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FootCircle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CircleBtnEffect</t>
+    <t>Challenge</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,21 +511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -575,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -592,7 +593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -609,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -626,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -637,13 +638,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -654,24 +655,24 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>

--- a/src/effect.xlsx
+++ b/src/effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2064C4C-C995-4EC7-A627-64208CA8F87F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F65E770-FB83-4ABB-A8B7-A20B990F4435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,17 @@
   </si>
   <si>
     <t>Challenge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>BoxEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,6 +689,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
